--- a/public/Exam_Format_Question.xlsx
+++ b/public/Exam_Format_Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B25A6-6648-4330-9B1F-9764EDF627AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBAA37-F907-4576-8D66-89BBEE10F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,11 +382,11 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,14 +396,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="b">
+      <c r="D1" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,10 +410,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
+      <c r="D2" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/public/Exam_Format_Question.xlsx
+++ b/public/Exam_Format_Question.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\lms-lpc-master\lms-lpc-master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBAA37-F907-4576-8D66-89BBEE10F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DF94C-9F5D-4EBC-AB11-1A2CC237FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,18 +64,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,14 +77,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,17 +408,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/public/Exam_Format_Question.xlsx
+++ b/public/Exam_Format_Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\lms-lpc-master\lms-lpc-master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DF94C-9F5D-4EBC-AB11-1A2CC237FEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A3C63-4554-4163-B29F-7E4CECDFF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,11 +390,12 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,11 +405,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="b">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +422,10 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
